--- a/sem1/CО-ИП-21-2.xlsx
+++ b/sem1/CО-ИП-21-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/information-systems-testing/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C973E05-4276-7749-A565-B438439DE639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A16D8A6-8483-894D-8FCD-A406AB5BCF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="34">
   <si>
     <t>№</t>
   </si>
@@ -216,6 +216,9 @@
   <si>
     <t>=</t>
   </si>
+  <si>
+    <t>Лаб 2</t>
+  </si>
 </sst>
 </file>
 
@@ -292,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -423,24 +426,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="19"/>
+      </right>
+      <top style="thin">
+        <color indexed="19"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="19"/>
+      </left>
+      <right style="thin">
+        <color indexed="19"/>
+      </right>
+      <top style="thin">
+        <color indexed="19"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="19"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="19"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -451,10 +536,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -478,10 +559,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -530,11 +607,136 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1766,17 +1968,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="192" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E8" sqref="E8"/>
+      <selection pane="topRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.33203125" style="1" customWidth="1"/>
-    <col min="3" max="23" width="9.1640625" style="1" customWidth="1"/>
-    <col min="24" max="29" width="8.83203125" style="1" customWidth="1"/>
+    <col min="3" max="8" width="6.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="23" width="9.1640625" style="14" customWidth="1"/>
+    <col min="24" max="29" width="8.83203125" style="14" customWidth="1"/>
     <col min="30" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -1787,678 +1990,858 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="25">
         <v>45171</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="44"/>
+      <c r="D1" s="25">
+        <v>45174</v>
+      </c>
+      <c r="E1" s="25">
+        <v>45178</v>
+      </c>
+      <c r="F1" s="25">
+        <v>45181</v>
+      </c>
+      <c r="G1" s="25">
+        <v>45185</v>
+      </c>
+      <c r="H1" s="25">
+        <v>45187</v>
+      </c>
+      <c r="I1" s="25">
+        <v>45188</v>
+      </c>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="33"/>
     </row>
     <row r="2" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="27"/>
+      <c r="C2" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="20"/>
     </row>
     <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="27"/>
+      <c r="C3" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="20"/>
     </row>
     <row r="4" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="27"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="27"/>
+      <c r="C4" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="20"/>
     </row>
     <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="27"/>
+      <c r="C5" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="20"/>
     </row>
     <row r="6" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="43"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="27"/>
+      <c r="D6" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="20"/>
     </row>
     <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="35"/>
-      <c r="AI7" s="27"/>
+      <c r="D7" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="24"/>
+      <c r="AI7" s="20"/>
     </row>
     <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="35"/>
-      <c r="AE8" s="43"/>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="35"/>
-      <c r="AI8" s="27"/>
+      <c r="C8" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="24"/>
+      <c r="AI8" s="20"/>
     </row>
     <row r="9" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="35"/>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="35"/>
-      <c r="AI9" s="27"/>
+      <c r="C9" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="20"/>
     </row>
     <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="35"/>
-      <c r="AE10" s="43"/>
-      <c r="AF10" s="35"/>
-      <c r="AG10" s="27"/>
-      <c r="AH10" s="35"/>
-      <c r="AI10" s="27"/>
+      <c r="C10" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="24"/>
+      <c r="AI10" s="20"/>
     </row>
     <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="43"/>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="43"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="27"/>
-      <c r="AH11" s="35"/>
-      <c r="AI11" s="43"/>
+      <c r="C11" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="32"/>
     </row>
     <row r="12" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="35"/>
-      <c r="AE12" s="43"/>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="27"/>
-      <c r="AH12" s="35"/>
-      <c r="AI12" s="27"/>
+      <c r="C12" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="24"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="24"/>
+      <c r="AI12" s="20"/>
     </row>
     <row r="13" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="42"/>
-      <c r="AC13" s="43"/>
-      <c r="AD13" s="35"/>
-      <c r="AE13" s="43"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="35"/>
-      <c r="AI13" s="27"/>
+      <c r="C13" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="24"/>
+      <c r="AI13" s="20"/>
     </row>
     <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="43"/>
-      <c r="AD14" s="35"/>
-      <c r="AE14" s="43"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="27"/>
-      <c r="AH14" s="35"/>
-      <c r="AI14" s="27"/>
+      <c r="C14" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="55"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="45"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="45"/>
+      <c r="AI14" s="44"/>
     </row>
     <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="59">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="42"/>
-      <c r="AC15" s="43"/>
-      <c r="AD15" s="35"/>
-      <c r="AE15" s="43"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="35"/>
-      <c r="AI15" s="27"/>
+      <c r="C15" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="24"/>
+      <c r="AI15" s="20"/>
     </row>
     <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="43"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="43"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="35"/>
-      <c r="AI16" s="27"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="48"/>
+      <c r="AE16" s="58"/>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="48"/>
+      <c r="AI16" s="46"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:R16 S16">
@@ -2484,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="187" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" zoomScale="209" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2502,436 +2885,448 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="12"/>
+      <c r="D1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="12"/>
+      <c r="C2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="12"/>
+      <c r="C3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="9"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="12"/>
+      <c r="C4" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="12"/>
+      <c r="C5" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="9"/>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="12"/>
+      <c r="C6" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="9"/>
     </row>
     <row r="7" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="9"/>
     </row>
     <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="9"/>
     </row>
     <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="12"/>
+      <c r="C9" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="9"/>
     </row>
     <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="12"/>
+      <c r="C10" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="9"/>
     </row>
     <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="12"/>
+      <c r="C11" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="9"/>
     </row>
     <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="12"/>
+      <c r="C12" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="9"/>
     </row>
     <row r="13" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="12"/>
+      <c r="C13" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="9"/>
     </row>
     <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="12"/>
+      <c r="C14" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="9"/>
     </row>
     <row r="15" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="9"/>
     </row>
     <row r="16" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
+      <c r="A16" s="6">
         <v>6</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="14"/>
+      <c r="C16" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="11"/>
     </row>
     <row r="17" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.70078700000000005" right="0.70078700000000005" top="0.751969" bottom="0.751969" header="0.3" footer="0.3"/>
@@ -2944,588 +3339,735 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AH14"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="200" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D10" sqref="D10"/>
+      <selection pane="topRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" style="1" customWidth="1"/>
-    <col min="3" max="24" width="9.1640625" style="1" customWidth="1"/>
+    <col min="3" max="7" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="24" width="9.1640625" style="1" customWidth="1"/>
     <col min="25" max="26" width="8.83203125" style="1" customWidth="1"/>
     <col min="27" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="70">
         <v>45171</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="44"/>
-    </row>
-    <row r="2" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="D1" s="23">
+        <v>45174</v>
+      </c>
+      <c r="E1" s="71">
+        <v>45178</v>
+      </c>
+      <c r="F1" s="25">
+        <v>45181</v>
+      </c>
+      <c r="G1" s="25">
+        <v>45185</v>
+      </c>
+      <c r="H1" s="25">
+        <v>45188</v>
+      </c>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="33"/>
+    </row>
+    <row r="2" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="27"/>
-    </row>
-    <row r="3" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="C2" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="20"/>
+    </row>
+    <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="27"/>
-    </row>
-    <row r="4" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="C3" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="20"/>
+    </row>
+    <row r="4" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="27"/>
-    </row>
-    <row r="5" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C4" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="20"/>
+    </row>
+    <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="27"/>
-    </row>
-    <row r="6" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="C5" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="20"/>
+    </row>
+    <row r="6" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="27"/>
-    </row>
-    <row r="7" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="C6" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="20"/>
+    </row>
+    <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="27"/>
-    </row>
-    <row r="8" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="C7" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="80"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="20"/>
+    </row>
+    <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="27"/>
-    </row>
-    <row r="9" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="C8" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="79"/>
+      <c r="U8" s="80"/>
+      <c r="V8" s="80"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="24"/>
+      <c r="AH8" s="20"/>
+    </row>
+    <row r="9" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="27"/>
-    </row>
-    <row r="10" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="C9" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="81"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="20"/>
+    </row>
+    <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="27"/>
-      <c r="AG10" s="35"/>
-      <c r="AH10" s="27"/>
-    </row>
-    <row r="11" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="C10" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="24"/>
+      <c r="AH10" s="20"/>
+    </row>
+    <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="27"/>
-    </row>
-    <row r="12" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="C11" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="81"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="20"/>
+    </row>
+    <row r="12" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="41">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="27"/>
-      <c r="AG12" s="35"/>
-      <c r="AH12" s="27"/>
-    </row>
-    <row r="13" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="C12" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="88"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="44"/>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="45"/>
+      <c r="AH12" s="44"/>
+    </row>
+    <row r="13" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="49">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="35"/>
-      <c r="AH13" s="27"/>
-    </row>
-    <row r="14" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="27"/>
-      <c r="AF14" s="27"/>
-      <c r="AG14" s="35"/>
-      <c r="AH14" s="27"/>
+      <c r="C13" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="24"/>
+      <c r="AH13" s="20"/>
+    </row>
+    <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="46"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C13 E2:S13 C14:S14">
@@ -3552,7 +4094,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="181" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3572,265 +4114,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="47"/>
+      <c r="D1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="36"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="49"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="49"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="38"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="49"/>
+      <c r="C4" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="38"/>
     </row>
     <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="49"/>
+      <c r="C5" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="38"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="35"/>
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="24"/>
     </row>
     <row r="7" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="49"/>
+      <c r="B7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="38"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="49"/>
+      <c r="B8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="38"/>
     </row>
     <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="49"/>
+      <c r="B9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="49"/>
+      <c r="B10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="49"/>
+      <c r="B11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="38"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="49"/>
+      <c r="B12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="38"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="49"/>
+      <c r="B13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="38"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="49"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="38"/>
     </row>
     <row r="22" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H22" s="26"/>
+      <c r="H22" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.70078700000000005" right="0.70078700000000005" top="0.751969" bottom="0.751969" header="0.3" footer="0.3"/>
